--- a/Desktop/Amir/Verifikasi Micropipet/MIKROPIPET TEMPLATE 2024 - UPM034A & UPM034B dan ACV 5000.xlsx
+++ b/Desktop/Amir/Verifikasi Micropipet/MIKROPIPET TEMPLATE 2024 - UPM034A & UPM034B dan ACV 5000.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20339"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\Amir\Verifikasi Micropipet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C65F53F-F4DF-4673-A7EF-624650556D6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC96BA40-2B53-4D28-89FA-47BCD768BF28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -925,13 +925,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -942,57 +941,23 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1003,23 +968,58 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1292,8 +1292,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71:D71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1316,11 +1316,11 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="75" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="70" t="s">
         <v>78</v>
       </c>
       <c r="F1" s="49"/>
@@ -1329,8 +1329,8 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="52"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="60"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -1348,11 +1348,11 @@
     <row r="2" spans="1:26" ht="11.25" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="75" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="70" t="s">
         <v>81</v>
       </c>
       <c r="F2" s="49"/>
@@ -1380,11 +1380,11 @@
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="77">
+      <c r="D3" s="60"/>
+      <c r="E3" s="68">
         <v>5000</v>
       </c>
       <c r="F3" s="49"/>
@@ -1416,12 +1416,12 @@
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -1450,11 +1450,11 @@
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="79">
+      <c r="D5" s="60"/>
+      <c r="E5" s="63">
         <v>21.3</v>
       </c>
       <c r="F5" s="49"/>
@@ -1482,11 +1482,11 @@
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="79">
+      <c r="D6" s="62"/>
+      <c r="E6" s="63">
         <v>61.9</v>
       </c>
       <c r="F6" s="49"/>
@@ -1518,12 +1518,12 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="81">
+      <c r="C7" s="64">
         <v>22.110700000000001</v>
       </c>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="83"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="66"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1550,11 +1550,11 @@
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
       <c r="F8" s="49"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -1582,11 +1582,11 @@
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
       <c r="F9" s="49"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -1614,12 +1614,12 @@
       <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="84">
+      <c r="C10" s="58">
         <f>IF(C7="", "", IF(OR(ROUND(C7,1)&lt;14.75,ROUND(C7,1)&gt;=30.25),"Out of Range",IF(ROUND(C7,1)&lt;15.75,1.002,IF(ROUND(C7,1)&lt;16.25,1.0021,IF(ROUND(C7,1)&lt;16.75,1.0022,IF(ROUND(C7,1)&lt;17.25,1.0023,IF(ROUND(C7,1)&lt;17.75,1.0024,IF(ROUND(C7,1)&lt;18.25,1.0025,IF(ROUND(C7,1)&lt;18.75,1.0026,IF(ROUND(C7,1)&lt;19.25,1.0027,IF(ROUND(C7,1)&lt;19.75,1.0028,IF(ROUND(C7,1)&lt;20.25,1.0029,IF(ROUND(C7,1)&lt;20.75,1.003,IF(ROUND(C7,1)&lt;21.25,1.0031,IF(ROUND(C7,1)&lt;21.75,1.0032,IF(ROUND(C7,1)&lt;22.25,1.0033,IF(ROUND(C7,1)&lt;22.75,1.0034,IF(ROUND(C7,1)&lt;23.25,1.0035,IF(ROUND(C7,1)&lt;23.75,1.0036,IF(ROUND(C7,1)&lt;24.25,1.0038,IF(ROUND(C7,1)&lt;24.75,1.0039,IF(ROUND(C7,1)&lt;25.25,1.004,IF(ROUND(C7,1)&lt;25.75,1.0041,IF(ROUND(C7,1)&lt;26.25,1.0043,IF(ROUND(C7,1)&lt;26.75,1.0044,IF(ROUND(C7,1)&lt;27.25,1.0045,IF(ROUND(C7,1)&lt;27.75,1.0047,IF(ROUND(C7,1)&lt;28.25,1.0048,IF(ROUND(C7,1)&lt;28.75,1.005,IF(ROUND(C7,1)&lt;29.25,1.0051,IF(ROUND(C7,1)&lt;29.75,1.0052,IF(ROUND(C7,1)&lt;30.25,1.0054,"error"))))))))))))))))))))))))))))))))</f>
         <v>1.0033000000000001</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="49"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1643,12 +1643,12 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A11" s="51"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1674,10 +1674,10 @@
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="54"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="49"/>
       <c r="E12" s="8">
         <v>5000</v>
@@ -1709,7 +1709,7 @@
       <c r="B13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="52" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="49"/>
@@ -1743,10 +1743,10 @@
       <c r="B14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="85">
+      <c r="C14" s="56">
         <v>5011.6899999999996</v>
       </c>
-      <c r="D14" s="86"/>
+      <c r="D14" s="57"/>
       <c r="E14" s="15">
         <f>C14*C10</f>
         <v>5028.2285769999999</v>
@@ -1778,10 +1778,10 @@
       <c r="B15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="85">
+      <c r="C15" s="56">
         <v>5010.3100000000004</v>
       </c>
-      <c r="D15" s="86"/>
+      <c r="D15" s="57"/>
       <c r="E15" s="15">
         <f>C15*C10</f>
         <v>5026.8440230000006</v>
@@ -1813,10 +1813,10 @@
       <c r="B16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="85">
+      <c r="C16" s="56">
         <v>5016.1899999999996</v>
       </c>
-      <c r="D16" s="86"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="15">
         <f>C16*C10</f>
         <v>5032.7434270000003</v>
@@ -1848,10 +1848,10 @@
       <c r="B17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="85">
+      <c r="C17" s="56">
         <v>5016.54</v>
       </c>
-      <c r="D17" s="86"/>
+      <c r="D17" s="57"/>
       <c r="E17" s="15">
         <f>C17*C10</f>
         <v>5033.0945820000006</v>
@@ -1883,10 +1883,10 @@
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="85">
+      <c r="C18" s="56">
         <v>5006.88</v>
       </c>
-      <c r="D18" s="86"/>
+      <c r="D18" s="57"/>
       <c r="E18" s="15">
         <f>C18*C10</f>
         <v>5023.4027040000001</v>
@@ -1918,10 +1918,10 @@
       <c r="B19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="85">
+      <c r="C19" s="56">
         <v>5010.22</v>
       </c>
-      <c r="D19" s="86"/>
+      <c r="D19" s="57"/>
       <c r="E19" s="15">
         <f>C19*C10</f>
         <v>5026.7537260000008</v>
@@ -1953,10 +1953,10 @@
       <c r="B20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="85">
+      <c r="C20" s="56">
         <v>5009.83</v>
       </c>
-      <c r="D20" s="86"/>
+      <c r="D20" s="57"/>
       <c r="E20" s="15">
         <f>C20*C10</f>
         <v>5026.3624390000004</v>
@@ -1988,10 +1988,10 @@
       <c r="B21" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="85">
+      <c r="C21" s="56">
         <v>5010.6099999999997</v>
       </c>
-      <c r="D21" s="86"/>
+      <c r="D21" s="57"/>
       <c r="E21" s="15">
         <f>C21*C10</f>
         <v>5027.1450130000003</v>
@@ -2023,10 +2023,10 @@
       <c r="B22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="85">
+      <c r="C22" s="56">
         <v>5013.43</v>
       </c>
-      <c r="D22" s="86"/>
+      <c r="D22" s="57"/>
       <c r="E22" s="15">
         <f>C22*C10</f>
         <v>5029.9743190000008</v>
@@ -2058,10 +2058,10 @@
       <c r="B23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="85">
+      <c r="C23" s="56">
         <v>5012.24</v>
       </c>
-      <c r="D23" s="86"/>
+      <c r="D23" s="57"/>
       <c r="E23" s="15">
         <f>C23*C10</f>
         <v>5028.7803920000006</v>
@@ -2093,7 +2093,7 @@
       <c r="B24" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="55">
+      <c r="C24" s="54">
         <f>AVERAGE(C14:D23)</f>
         <v>5011.7939999999999</v>
       </c>
@@ -2184,10 +2184,10 @@
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="54"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="49"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -2217,7 +2217,7 @@
       <c r="B28" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="55">
+      <c r="C28" s="54">
         <f>E24</f>
         <v>5028.3329202000004</v>
       </c>
@@ -2250,7 +2250,7 @@
       <c r="B29" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="55">
+      <c r="C29" s="54">
         <f>STDEV(E14:E23)</f>
         <v>2.9691548089171449</v>
       </c>
@@ -2283,7 +2283,7 @@
       <c r="B30" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="56">
+      <c r="C30" s="55">
         <f>ABS((100*(C28-E12)/E12))</f>
         <v>0.56665840400000889</v>
       </c>
@@ -2316,7 +2316,7 @@
       <c r="B31" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="56">
+      <c r="C31" s="55">
         <f>ABS((100*C29/C28))</f>
         <v>5.9048492930715644E-2</v>
       </c>
@@ -2349,7 +2349,7 @@
       <c r="B32" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="58">
+      <c r="C32" s="50">
         <v>0.8</v>
       </c>
       <c r="D32" s="49"/>
@@ -2381,7 +2381,7 @@
       <c r="B33" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="59">
+      <c r="C33" s="51">
         <v>0.3</v>
       </c>
       <c r="D33" s="49"/>
@@ -2413,7 +2413,7 @@
       <c r="B34" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="53" t="str">
+      <c r="C34" s="52" t="str">
         <f>IF(AND(C31&lt;=C33,C30&lt;=C32),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
@@ -2473,10 +2473,10 @@
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="54"/>
+      <c r="C36" s="53"/>
       <c r="D36" s="49"/>
       <c r="E36" s="21">
         <v>2500</v>
@@ -2508,7 +2508,7 @@
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="53" t="s">
+      <c r="C37" s="52" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="49"/>
@@ -2892,7 +2892,7 @@
       <c r="B48" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="50">
+      <c r="C48" s="85">
         <f>AVERAGE(C38:D47)</f>
         <v>2509.3840000000005</v>
       </c>
@@ -2924,12 +2924,12 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A49" s="51"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
+      <c r="A49" s="59"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -2955,10 +2955,10 @@
       <c r="A50" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="53" t="s">
+      <c r="B50" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="54"/>
+      <c r="C50" s="53"/>
       <c r="D50" s="49"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -2988,7 +2988,7 @@
       <c r="B51" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="55">
+      <c r="C51" s="54">
         <f>E48</f>
         <v>2517.6649672000008</v>
       </c>
@@ -3021,7 +3021,7 @@
       <c r="B52" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="53">
+      <c r="C52" s="52">
         <f>STDEV(E38:E47)</f>
         <v>2.6298421992434982</v>
       </c>
@@ -3054,7 +3054,7 @@
       <c r="B53" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="56">
+      <c r="C53" s="55">
         <f>ABS((100*(C51-E36)/E36))</f>
         <v>0.70659868800003101</v>
       </c>
@@ -3087,7 +3087,7 @@
       <c r="B54" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="57">
+      <c r="C54" s="86">
         <f>ABS((100*C52/C51))</f>
         <v>0.10445560602800358</v>
       </c>
@@ -3120,7 +3120,7 @@
       <c r="B55" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="58">
+      <c r="C55" s="50">
         <v>1.6</v>
       </c>
       <c r="D55" s="49"/>
@@ -3152,7 +3152,7 @@
       <c r="B56" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C56" s="59">
+      <c r="C56" s="51">
         <v>0.6</v>
       </c>
       <c r="D56" s="49"/>
@@ -3184,7 +3184,7 @@
       <c r="B57" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="53" t="str">
+      <c r="C57" s="52" t="str">
         <f>IF(AND(C54&lt;=C56,C53&lt;=C55),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
@@ -3244,10 +3244,10 @@
       <c r="A59" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B59" s="60" t="s">
+      <c r="B59" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="54"/>
+      <c r="C59" s="53"/>
       <c r="D59" s="49"/>
       <c r="E59" s="8">
         <v>500</v>
@@ -3279,7 +3279,7 @@
       <c r="B60" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="53" t="s">
+      <c r="C60" s="52" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="49"/>
@@ -3663,7 +3663,7 @@
       <c r="B71" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="50">
+      <c r="C71" s="85">
         <f>AVERAGE(C61:D70)</f>
         <v>512.77500000000009</v>
       </c>
@@ -3726,10 +3726,10 @@
       <c r="A73" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B73" s="53" t="s">
+      <c r="B73" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C73" s="54"/>
+      <c r="C73" s="53"/>
       <c r="D73" s="49"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -3759,7 +3759,7 @@
       <c r="B74" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C74" s="55">
+      <c r="C74" s="54">
         <f>E71</f>
         <v>514.46715749999998</v>
       </c>
@@ -3792,7 +3792,7 @@
       <c r="B75" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C75" s="55">
+      <c r="C75" s="54">
         <f>STDEV(E61:E70)</f>
         <v>1.6925713621858849</v>
       </c>
@@ -3825,7 +3825,7 @@
       <c r="B76" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C76" s="56">
+      <c r="C76" s="55">
         <f>ABS((100*(C74-E59)/E59))</f>
         <v>2.893431499999997</v>
       </c>
@@ -3858,7 +3858,7 @@
       <c r="B77" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C77" s="56">
+      <c r="C77" s="55">
         <f>ABS((100*C75/C74))</f>
         <v>0.32899502670117187</v>
       </c>
@@ -3891,7 +3891,7 @@
       <c r="B78" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C78" s="58">
+      <c r="C78" s="50">
         <v>8</v>
       </c>
       <c r="D78" s="49"/>
@@ -3923,7 +3923,7 @@
       <c r="B79" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C79" s="59">
+      <c r="C79" s="51">
         <v>3</v>
       </c>
       <c r="D79" s="49"/>
@@ -3955,7 +3955,7 @@
       <c r="B80" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C80" s="53" t="str">
+      <c r="C80" s="52" t="str">
         <f>IF(AND(C77&lt;=C79,C76&lt;=C78),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
@@ -4015,15 +4015,15 @@
       <c r="A82" s="10">
         <v>8</v>
       </c>
-      <c r="B82" s="72" t="s">
+      <c r="B82" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="C82" s="73" t="s">
+      <c r="C82" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="D82" s="62"/>
-      <c r="E82" s="62"/>
-      <c r="F82" s="63"/>
+      <c r="D82" s="79"/>
+      <c r="E82" s="79"/>
+      <c r="F82" s="73"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
@@ -4047,11 +4047,11 @@
     </row>
     <row r="83" spans="1:26" ht="12.75" customHeight="1">
       <c r="A83" s="10"/>
-      <c r="B83" s="70"/>
-      <c r="C83" s="52"/>
-      <c r="D83" s="52"/>
-      <c r="E83" s="52"/>
-      <c r="F83" s="65"/>
+      <c r="B83" s="82"/>
+      <c r="C83" s="60"/>
+      <c r="D83" s="60"/>
+      <c r="E83" s="60"/>
+      <c r="F83" s="75"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
@@ -4075,11 +4075,11 @@
     </row>
     <row r="84" spans="1:26" ht="12.75" customHeight="1">
       <c r="A84" s="10"/>
-      <c r="B84" s="71"/>
-      <c r="C84" s="67"/>
-      <c r="D84" s="67"/>
-      <c r="E84" s="67"/>
-      <c r="F84" s="68"/>
+      <c r="B84" s="83"/>
+      <c r="C84" s="62"/>
+      <c r="D84" s="62"/>
+      <c r="E84" s="62"/>
+      <c r="F84" s="77"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
@@ -4130,15 +4130,15 @@
       <c r="Z85" s="3"/>
     </row>
     <row r="86" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A86" s="53" t="s">
+      <c r="A86" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B86" s="54"/>
+      <c r="B86" s="53"/>
       <c r="C86" s="49"/>
       <c r="D86" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E86" s="60" t="s">
+      <c r="E86" s="80" t="s">
         <v>48</v>
       </c>
       <c r="F86" s="49"/>
@@ -4164,18 +4164,18 @@
       <c r="Z86" s="3"/>
     </row>
     <row r="87" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A87" s="61" t="s">
+      <c r="A87" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="B87" s="62"/>
-      <c r="C87" s="63"/>
-      <c r="D87" s="69" t="s">
+      <c r="B87" s="79"/>
+      <c r="C87" s="73"/>
+      <c r="D87" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="E87" s="61" t="s">
+      <c r="E87" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="F87" s="63"/>
+      <c r="F87" s="73"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -4198,12 +4198,12 @@
       <c r="Z87" s="3"/>
     </row>
     <row r="88" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A88" s="64"/>
-      <c r="B88" s="52"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="70"/>
-      <c r="E88" s="64"/>
-      <c r="F88" s="65"/>
+      <c r="A88" s="74"/>
+      <c r="B88" s="60"/>
+      <c r="C88" s="75"/>
+      <c r="D88" s="82"/>
+      <c r="E88" s="74"/>
+      <c r="F88" s="75"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
@@ -4226,12 +4226,12 @@
       <c r="Z88" s="3"/>
     </row>
     <row r="89" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A89" s="64"/>
-      <c r="B89" s="52"/>
-      <c r="C89" s="65"/>
-      <c r="D89" s="70"/>
-      <c r="E89" s="64"/>
-      <c r="F89" s="65"/>
+      <c r="A89" s="74"/>
+      <c r="B89" s="60"/>
+      <c r="C89" s="75"/>
+      <c r="D89" s="82"/>
+      <c r="E89" s="74"/>
+      <c r="F89" s="75"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
@@ -4254,12 +4254,12 @@
       <c r="Z89" s="3"/>
     </row>
     <row r="90" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A90" s="64"/>
-      <c r="B90" s="52"/>
-      <c r="C90" s="65"/>
-      <c r="D90" s="70"/>
-      <c r="E90" s="64"/>
-      <c r="F90" s="65"/>
+      <c r="A90" s="74"/>
+      <c r="B90" s="60"/>
+      <c r="C90" s="75"/>
+      <c r="D90" s="82"/>
+      <c r="E90" s="74"/>
+      <c r="F90" s="75"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
@@ -4282,12 +4282,12 @@
       <c r="Z90" s="3"/>
     </row>
     <row r="91" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A91" s="64"/>
-      <c r="B91" s="52"/>
-      <c r="C91" s="65"/>
-      <c r="D91" s="70"/>
-      <c r="E91" s="64"/>
-      <c r="F91" s="65"/>
+      <c r="A91" s="74"/>
+      <c r="B91" s="60"/>
+      <c r="C91" s="75"/>
+      <c r="D91" s="82"/>
+      <c r="E91" s="74"/>
+      <c r="F91" s="75"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
@@ -4310,12 +4310,12 @@
       <c r="Z91" s="3"/>
     </row>
     <row r="92" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A92" s="64"/>
-      <c r="B92" s="52"/>
-      <c r="C92" s="65"/>
-      <c r="D92" s="70"/>
-      <c r="E92" s="64"/>
-      <c r="F92" s="65"/>
+      <c r="A92" s="74"/>
+      <c r="B92" s="60"/>
+      <c r="C92" s="75"/>
+      <c r="D92" s="82"/>
+      <c r="E92" s="74"/>
+      <c r="F92" s="75"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
@@ -4338,12 +4338,12 @@
       <c r="Z92" s="3"/>
     </row>
     <row r="93" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A93" s="64"/>
-      <c r="B93" s="52"/>
-      <c r="C93" s="65"/>
-      <c r="D93" s="70"/>
-      <c r="E93" s="64"/>
-      <c r="F93" s="65"/>
+      <c r="A93" s="74"/>
+      <c r="B93" s="60"/>
+      <c r="C93" s="75"/>
+      <c r="D93" s="82"/>
+      <c r="E93" s="74"/>
+      <c r="F93" s="75"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
@@ -4366,12 +4366,12 @@
       <c r="Z93" s="3"/>
     </row>
     <row r="94" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A94" s="64"/>
-      <c r="B94" s="52"/>
-      <c r="C94" s="65"/>
-      <c r="D94" s="70"/>
-      <c r="E94" s="64"/>
-      <c r="F94" s="65"/>
+      <c r="A94" s="74"/>
+      <c r="B94" s="60"/>
+      <c r="C94" s="75"/>
+      <c r="D94" s="82"/>
+      <c r="E94" s="74"/>
+      <c r="F94" s="75"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
@@ -4394,12 +4394,12 @@
       <c r="Z94" s="3"/>
     </row>
     <row r="95" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A95" s="66"/>
-      <c r="B95" s="67"/>
-      <c r="C95" s="68"/>
-      <c r="D95" s="71"/>
-      <c r="E95" s="66"/>
-      <c r="F95" s="68"/>
+      <c r="A95" s="76"/>
+      <c r="B95" s="62"/>
+      <c r="C95" s="77"/>
+      <c r="D95" s="83"/>
+      <c r="E95" s="76"/>
+      <c r="F95" s="77"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
@@ -29763,6 +29763,85 @@
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A87:C95"/>
+    <mergeCell ref="D87:D95"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="E87:F95"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C82:F84"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="C37:D37"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
@@ -29772,85 +29851,6 @@
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E87:F95"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C82:F84"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A87:C95"/>
-    <mergeCell ref="D87:D95"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="C51:D51"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.94488188976377963" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -29891,11 +29891,11 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="75" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="70" t="s">
         <v>78</v>
       </c>
       <c r="F1" s="49"/>
@@ -29904,8 +29904,8 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="52"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="60"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -29923,11 +29923,11 @@
     <row r="2" spans="1:26" ht="11.25" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="75" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="70" t="s">
         <v>81</v>
       </c>
       <c r="F2" s="49"/>
@@ -29955,11 +29955,11 @@
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="77">
+      <c r="D3" s="60"/>
+      <c r="E3" s="68">
         <v>5000</v>
       </c>
       <c r="F3" s="49"/>
@@ -29991,12 +29991,12 @@
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -30025,11 +30025,11 @@
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="79">
+      <c r="D5" s="60"/>
+      <c r="E5" s="63">
         <v>21.3</v>
       </c>
       <c r="F5" s="49"/>
@@ -30057,11 +30057,11 @@
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="79">
+      <c r="D6" s="62"/>
+      <c r="E6" s="63">
         <v>61.9</v>
       </c>
       <c r="F6" s="49"/>
@@ -30093,11 +30093,11 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="59">
+      <c r="C7" s="51">
         <v>22.209499999999998</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
       <c r="F7" s="49"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -30125,11 +30125,11 @@
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
       <c r="F8" s="49"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -30157,11 +30157,11 @@
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
       <c r="F9" s="49"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -30189,12 +30189,12 @@
       <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="84">
+      <c r="C10" s="58">
         <f>IF(C7="", "", IF(OR(ROUND(C7,1)&lt;14.75,ROUND(C7,1)&gt;=30.25),"Out of Range",IF(ROUND(C7,1)&lt;15.75,1.002,IF(ROUND(C7,1)&lt;16.25,1.0021,IF(ROUND(C7,1)&lt;16.75,1.0022,IF(ROUND(C7,1)&lt;17.25,1.0023,IF(ROUND(C7,1)&lt;17.75,1.0024,IF(ROUND(C7,1)&lt;18.25,1.0025,IF(ROUND(C7,1)&lt;18.75,1.0026,IF(ROUND(C7,1)&lt;19.25,1.0027,IF(ROUND(C7,1)&lt;19.75,1.0028,IF(ROUND(C7,1)&lt;20.25,1.0029,IF(ROUND(C7,1)&lt;20.75,1.003,IF(ROUND(C7,1)&lt;21.25,1.0031,IF(ROUND(C7,1)&lt;21.75,1.0032,IF(ROUND(C7,1)&lt;22.25,1.0033,IF(ROUND(C7,1)&lt;22.75,1.0034,IF(ROUND(C7,1)&lt;23.25,1.0035,IF(ROUND(C7,1)&lt;23.75,1.0036,IF(ROUND(C7,1)&lt;24.25,1.0038,IF(ROUND(C7,1)&lt;24.75,1.0039,IF(ROUND(C7,1)&lt;25.25,1.004,IF(ROUND(C7,1)&lt;25.75,1.0041,IF(ROUND(C7,1)&lt;26.25,1.0043,IF(ROUND(C7,1)&lt;26.75,1.0044,IF(ROUND(C7,1)&lt;27.25,1.0045,IF(ROUND(C7,1)&lt;27.75,1.0047,IF(ROUND(C7,1)&lt;28.25,1.0048,IF(ROUND(C7,1)&lt;28.75,1.005,IF(ROUND(C7,1)&lt;29.25,1.0051,IF(ROUND(C7,1)&lt;29.75,1.0052,IF(ROUND(C7,1)&lt;30.25,1.0054,"error"))))))))))))))))))))))))))))))))</f>
         <v>1.0033000000000001</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="49"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -30218,12 +30218,12 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A11" s="51"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -30249,10 +30249,10 @@
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="54"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="49"/>
       <c r="E12" s="31">
         <v>5000</v>
@@ -30284,7 +30284,7 @@
       <c r="B13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="52" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="49"/>
@@ -30318,10 +30318,10 @@
       <c r="B14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="89">
+      <c r="C14" s="87">
         <v>5009.7</v>
       </c>
-      <c r="D14" s="90"/>
+      <c r="D14" s="88"/>
       <c r="E14" s="15">
         <f>C14*C10</f>
         <v>5026.2320100000006</v>
@@ -30353,10 +30353,10 @@
       <c r="B15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="89">
+      <c r="C15" s="87">
         <v>5003.3</v>
       </c>
-      <c r="D15" s="90"/>
+      <c r="D15" s="88"/>
       <c r="E15" s="15">
         <f>C15*C10</f>
         <v>5019.8108900000007</v>
@@ -30388,10 +30388,10 @@
       <c r="B16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="89">
+      <c r="C16" s="87">
         <v>5003.8</v>
       </c>
-      <c r="D16" s="90"/>
+      <c r="D16" s="88"/>
       <c r="E16" s="15">
         <f>C16*C10</f>
         <v>5020.3125400000008</v>
@@ -30423,10 +30423,10 @@
       <c r="B17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="89">
+      <c r="C17" s="87">
         <v>5001.8</v>
       </c>
-      <c r="D17" s="90"/>
+      <c r="D17" s="88"/>
       <c r="E17" s="15">
         <f>C17*C10</f>
         <v>5018.3059400000002</v>
@@ -30458,10 +30458,10 @@
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="89">
+      <c r="C18" s="87">
         <v>5003.8999999999996</v>
       </c>
-      <c r="D18" s="90"/>
+      <c r="D18" s="88"/>
       <c r="E18" s="15">
         <f>C18*C10</f>
         <v>5020.4128700000001</v>
@@ -30495,10 +30495,10 @@
       <c r="B19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="89">
+      <c r="C19" s="87">
         <v>5000.5</v>
       </c>
-      <c r="D19" s="90"/>
+      <c r="D19" s="88"/>
       <c r="E19" s="15">
         <f>C19*C10</f>
         <v>5017.0016500000002</v>
@@ -30530,10 +30530,10 @@
       <c r="B20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="89">
+      <c r="C20" s="87">
         <v>5005.3</v>
       </c>
-      <c r="D20" s="90"/>
+      <c r="D20" s="88"/>
       <c r="E20" s="15">
         <f>C20*C10</f>
         <v>5021.8174900000004</v>
@@ -30565,10 +30565,10 @@
       <c r="B21" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="89">
+      <c r="C21" s="87">
         <v>5004.6000000000004</v>
       </c>
-      <c r="D21" s="90"/>
+      <c r="D21" s="88"/>
       <c r="E21" s="15">
         <f>C21*C10</f>
         <v>5021.1151800000007</v>
@@ -30600,10 +30600,10 @@
       <c r="B22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="89">
+      <c r="C22" s="87">
         <v>5009.3999999999996</v>
       </c>
-      <c r="D22" s="90"/>
+      <c r="D22" s="88"/>
       <c r="E22" s="15">
         <f>C22*C10</f>
         <v>5025.93102</v>
@@ -30635,10 +30635,10 @@
       <c r="B23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="89">
+      <c r="C23" s="87">
         <v>5007.8</v>
       </c>
-      <c r="D23" s="90"/>
+      <c r="D23" s="88"/>
       <c r="E23" s="15">
         <f>C23*C10</f>
         <v>5024.3257400000002</v>
@@ -30670,7 +30670,7 @@
       <c r="B24" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="55">
+      <c r="C24" s="54">
         <f>AVERAGE(C14:D23)</f>
         <v>5005.01</v>
       </c>
@@ -30761,10 +30761,10 @@
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="54"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="49"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -30794,7 +30794,7 @@
       <c r="B28" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="55">
+      <c r="C28" s="54">
         <f>E24</f>
         <v>5021.5265330000011</v>
       </c>
@@ -30827,7 +30827,7 @@
       <c r="B29" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="55">
+      <c r="C29" s="54">
         <f>STDEV(E14:E23)</f>
         <v>3.0936258347053909</v>
       </c>
@@ -30860,7 +30860,7 @@
       <c r="B30" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="56">
+      <c r="C30" s="55">
         <f>ABS((100*(C28-E12)/E12))</f>
         <v>0.43053066000002216</v>
       </c>
@@ -30893,7 +30893,7 @@
       <c r="B31" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="56">
+      <c r="C31" s="55">
         <f>ABS((100*C29/C28))</f>
         <v>6.1607278471496434E-2</v>
       </c>
@@ -30926,7 +30926,7 @@
       <c r="B32" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="58">
+      <c r="C32" s="50">
         <v>0.8</v>
       </c>
       <c r="D32" s="49"/>
@@ -30958,7 +30958,7 @@
       <c r="B33" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="59">
+      <c r="C33" s="51">
         <v>0.3</v>
       </c>
       <c r="D33" s="49"/>
@@ -30990,7 +30990,7 @@
       <c r="B34" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="53" t="str">
+      <c r="C34" s="52" t="str">
         <f>IF(AND(C31&lt;=C33,C30&lt;=C32),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
@@ -31050,10 +31050,10 @@
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="54"/>
+      <c r="C36" s="53"/>
       <c r="D36" s="49"/>
       <c r="E36" s="32">
         <v>2500</v>
@@ -31085,7 +31085,7 @@
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="53" t="s">
+      <c r="C37" s="52" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="49"/>
@@ -31469,7 +31469,7 @@
       <c r="B48" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="50">
+      <c r="C48" s="85">
         <f>AVERAGE(C38:D47)</f>
         <v>2505.59</v>
       </c>
@@ -31501,12 +31501,12 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A49" s="51"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
+      <c r="A49" s="59"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -31532,10 +31532,10 @@
       <c r="A50" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="53" t="s">
+      <c r="B50" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="54"/>
+      <c r="C50" s="53"/>
       <c r="D50" s="49"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -31565,7 +31565,7 @@
       <c r="B51" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="55">
+      <c r="C51" s="54">
         <f>E48</f>
         <v>2513.8584470000001</v>
       </c>
@@ -31598,7 +31598,7 @@
       <c r="B52" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="53">
+      <c r="C52" s="52">
         <f>STDEV(E38:E47)</f>
         <v>2.8910402817980909</v>
       </c>
@@ -31631,7 +31631,7 @@
       <c r="B53" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="56">
+      <c r="C53" s="55">
         <f>ABS((100*(C51-E36)/E36))</f>
         <v>0.55433788000000273</v>
       </c>
@@ -31664,7 +31664,7 @@
       <c r="B54" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="57">
+      <c r="C54" s="86">
         <f>ABS((100*C52/C51))</f>
         <v>0.1150040999821694</v>
       </c>
@@ -31697,7 +31697,7 @@
       <c r="B55" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="58">
+      <c r="C55" s="50">
         <v>1.6</v>
       </c>
       <c r="D55" s="49"/>
@@ -31729,7 +31729,7 @@
       <c r="B56" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C56" s="59">
+      <c r="C56" s="51">
         <v>0.6</v>
       </c>
       <c r="D56" s="49"/>
@@ -31761,7 +31761,7 @@
       <c r="B57" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="53" t="str">
+      <c r="C57" s="52" t="str">
         <f>IF(AND(C54&lt;=C56,C53&lt;=C55),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
@@ -31821,12 +31821,12 @@
       <c r="A59" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B59" s="60" t="s">
+      <c r="B59" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="54"/>
+      <c r="C59" s="53"/>
       <c r="D59" s="49"/>
-      <c r="E59" s="87">
+      <c r="E59" s="90">
         <v>500</v>
       </c>
       <c r="F59" s="49"/>
@@ -31856,7 +31856,7 @@
       <c r="B60" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="53" t="s">
+      <c r="C60" s="52" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="49"/>
@@ -32272,7 +32272,7 @@
       <c r="B71" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="50">
+      <c r="C71" s="85">
         <f>AVERAGE(C61:D70)</f>
         <v>506.392</v>
       </c>
@@ -32338,10 +32338,10 @@
       <c r="A73" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B73" s="53" t="s">
+      <c r="B73" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="C73" s="54"/>
+      <c r="C73" s="53"/>
       <c r="D73" s="49"/>
       <c r="E73" s="7"/>
       <c r="F73" s="3"/>
@@ -32371,7 +32371,7 @@
       <c r="B74" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C74" s="88"/>
+      <c r="C74" s="89"/>
       <c r="D74" s="49"/>
       <c r="E74" s="7"/>
       <c r="F74" s="3"/>
@@ -32401,7 +32401,7 @@
       <c r="B75" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C75" s="85"/>
+      <c r="C75" s="56"/>
       <c r="D75" s="49"/>
       <c r="E75" s="7"/>
       <c r="F75" s="3"/>
@@ -32431,7 +32431,7 @@
       <c r="B76" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C76" s="55">
+      <c r="C76" s="54">
         <f>C75*C10</f>
         <v>0</v>
       </c>
@@ -32464,7 +32464,7 @@
       <c r="B77" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C77" s="55">
+      <c r="C77" s="54">
         <f>ABS(E70-C76)/10</f>
         <v>50.938544300000004</v>
       </c>
@@ -32496,10 +32496,10 @@
       <c r="A78" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B78" s="53" t="s">
+      <c r="B78" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C78" s="54"/>
+      <c r="C78" s="53"/>
       <c r="D78" s="49"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -32529,7 +32529,7 @@
       <c r="B79" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C79" s="55">
+      <c r="C79" s="54">
         <f>F71</f>
         <v>559.00163790000011</v>
       </c>
@@ -32562,7 +32562,7 @@
       <c r="B80" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C80" s="55">
+      <c r="C80" s="54">
         <f>STDEV(F61:F70)</f>
         <v>1.6198163793828375</v>
       </c>
@@ -32595,7 +32595,7 @@
       <c r="B81" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C81" s="56">
+      <c r="C81" s="55">
         <f>ABS((100*(C79-E59)/E59))</f>
         <v>11.800327580000021</v>
       </c>
@@ -32628,7 +32628,7 @@
       <c r="B82" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C82" s="56">
+      <c r="C82" s="55">
         <f>ABS((100*C80/C79))</f>
         <v>0.28976952294236508</v>
       </c>
@@ -32661,7 +32661,7 @@
       <c r="B83" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C83" s="58">
+      <c r="C83" s="50">
         <v>8</v>
       </c>
       <c r="D83" s="49"/>
@@ -32693,7 +32693,7 @@
       <c r="B84" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C84" s="59">
+      <c r="C84" s="51">
         <v>3</v>
       </c>
       <c r="D84" s="49"/>
@@ -32725,7 +32725,7 @@
       <c r="B85" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C85" s="53" t="str">
+      <c r="C85" s="52" t="str">
         <f>IF(AND(C82&lt;=C84,C81&lt;=C83),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
@@ -32785,15 +32785,15 @@
       <c r="A87" s="10">
         <v>8</v>
       </c>
-      <c r="B87" s="72" t="s">
+      <c r="B87" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="C87" s="73" t="s">
+      <c r="C87" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="D87" s="62"/>
-      <c r="E87" s="62"/>
-      <c r="F87" s="63"/>
+      <c r="D87" s="79"/>
+      <c r="E87" s="79"/>
+      <c r="F87" s="73"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -32817,11 +32817,11 @@
     </row>
     <row r="88" spans="1:26" ht="12.75" customHeight="1">
       <c r="A88" s="10"/>
-      <c r="B88" s="70"/>
-      <c r="C88" s="52"/>
-      <c r="D88" s="52"/>
-      <c r="E88" s="52"/>
-      <c r="F88" s="65"/>
+      <c r="B88" s="82"/>
+      <c r="C88" s="60"/>
+      <c r="D88" s="60"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="75"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
@@ -32845,11 +32845,11 @@
     </row>
     <row r="89" spans="1:26" ht="12.75" customHeight="1">
       <c r="A89" s="10"/>
-      <c r="B89" s="71"/>
-      <c r="C89" s="67"/>
-      <c r="D89" s="67"/>
-      <c r="E89" s="67"/>
-      <c r="F89" s="68"/>
+      <c r="B89" s="83"/>
+      <c r="C89" s="62"/>
+      <c r="D89" s="62"/>
+      <c r="E89" s="62"/>
+      <c r="F89" s="77"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
@@ -32900,15 +32900,15 @@
       <c r="Z90" s="3"/>
     </row>
     <row r="91" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A91" s="53" t="s">
+      <c r="A91" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B91" s="54"/>
+      <c r="B91" s="53"/>
       <c r="C91" s="49"/>
       <c r="D91" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E91" s="60" t="s">
+      <c r="E91" s="80" t="s">
         <v>48</v>
       </c>
       <c r="F91" s="49"/>
@@ -32934,18 +32934,18 @@
       <c r="Z91" s="3"/>
     </row>
     <row r="92" spans="1:26" ht="12.75" hidden="1" customHeight="1">
-      <c r="A92" s="61" t="s">
+      <c r="A92" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="B92" s="62"/>
-      <c r="C92" s="63"/>
-      <c r="D92" s="69" t="s">
+      <c r="B92" s="79"/>
+      <c r="C92" s="73"/>
+      <c r="D92" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="E92" s="61" t="s">
+      <c r="E92" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="F92" s="63"/>
+      <c r="F92" s="73"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
@@ -32968,12 +32968,12 @@
       <c r="Z92" s="3"/>
     </row>
     <row r="93" spans="1:26" ht="12.75" hidden="1" customHeight="1">
-      <c r="A93" s="64"/>
-      <c r="B93" s="52"/>
-      <c r="C93" s="65"/>
-      <c r="D93" s="70"/>
-      <c r="E93" s="64"/>
-      <c r="F93" s="65"/>
+      <c r="A93" s="74"/>
+      <c r="B93" s="60"/>
+      <c r="C93" s="75"/>
+      <c r="D93" s="82"/>
+      <c r="E93" s="74"/>
+      <c r="F93" s="75"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
@@ -32996,12 +32996,12 @@
       <c r="Z93" s="3"/>
     </row>
     <row r="94" spans="1:26" ht="12.75" hidden="1" customHeight="1">
-      <c r="A94" s="64"/>
-      <c r="B94" s="52"/>
-      <c r="C94" s="65"/>
-      <c r="D94" s="70"/>
-      <c r="E94" s="64"/>
-      <c r="F94" s="65"/>
+      <c r="A94" s="74"/>
+      <c r="B94" s="60"/>
+      <c r="C94" s="75"/>
+      <c r="D94" s="82"/>
+      <c r="E94" s="74"/>
+      <c r="F94" s="75"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
@@ -33024,12 +33024,12 @@
       <c r="Z94" s="3"/>
     </row>
     <row r="95" spans="1:26" ht="12.75" hidden="1" customHeight="1">
-      <c r="A95" s="64"/>
-      <c r="B95" s="52"/>
-      <c r="C95" s="65"/>
-      <c r="D95" s="70"/>
-      <c r="E95" s="64"/>
-      <c r="F95" s="65"/>
+      <c r="A95" s="74"/>
+      <c r="B95" s="60"/>
+      <c r="C95" s="75"/>
+      <c r="D95" s="82"/>
+      <c r="E95" s="74"/>
+      <c r="F95" s="75"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
@@ -33052,12 +33052,12 @@
       <c r="Z95" s="3"/>
     </row>
     <row r="96" spans="1:26" ht="12.75" hidden="1" customHeight="1">
-      <c r="A96" s="64"/>
-      <c r="B96" s="52"/>
-      <c r="C96" s="65"/>
-      <c r="D96" s="70"/>
-      <c r="E96" s="64"/>
-      <c r="F96" s="65"/>
+      <c r="A96" s="74"/>
+      <c r="B96" s="60"/>
+      <c r="C96" s="75"/>
+      <c r="D96" s="82"/>
+      <c r="E96" s="74"/>
+      <c r="F96" s="75"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
@@ -33080,12 +33080,12 @@
       <c r="Z96" s="3"/>
     </row>
     <row r="97" spans="1:26" ht="12.75" hidden="1" customHeight="1">
-      <c r="A97" s="64"/>
-      <c r="B97" s="52"/>
-      <c r="C97" s="65"/>
-      <c r="D97" s="70"/>
-      <c r="E97" s="64"/>
-      <c r="F97" s="65"/>
+      <c r="A97" s="74"/>
+      <c r="B97" s="60"/>
+      <c r="C97" s="75"/>
+      <c r="D97" s="82"/>
+      <c r="E97" s="74"/>
+      <c r="F97" s="75"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
@@ -33108,12 +33108,12 @@
       <c r="Z97" s="3"/>
     </row>
     <row r="98" spans="1:26" ht="12.75" hidden="1" customHeight="1">
-      <c r="A98" s="64"/>
-      <c r="B98" s="52"/>
-      <c r="C98" s="65"/>
-      <c r="D98" s="70"/>
-      <c r="E98" s="64"/>
-      <c r="F98" s="65"/>
+      <c r="A98" s="74"/>
+      <c r="B98" s="60"/>
+      <c r="C98" s="75"/>
+      <c r="D98" s="82"/>
+      <c r="E98" s="74"/>
+      <c r="F98" s="75"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
@@ -33136,12 +33136,12 @@
       <c r="Z98" s="3"/>
     </row>
     <row r="99" spans="1:26" ht="12.75" hidden="1" customHeight="1">
-      <c r="A99" s="64"/>
-      <c r="B99" s="52"/>
-      <c r="C99" s="65"/>
-      <c r="D99" s="70"/>
-      <c r="E99" s="64"/>
-      <c r="F99" s="65"/>
+      <c r="A99" s="74"/>
+      <c r="B99" s="60"/>
+      <c r="C99" s="75"/>
+      <c r="D99" s="82"/>
+      <c r="E99" s="74"/>
+      <c r="F99" s="75"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
@@ -33164,12 +33164,12 @@
       <c r="Z99" s="3"/>
     </row>
     <row r="100" spans="1:26" ht="80.25" customHeight="1">
-      <c r="A100" s="66"/>
-      <c r="B100" s="67"/>
-      <c r="C100" s="68"/>
-      <c r="D100" s="71"/>
-      <c r="E100" s="66"/>
-      <c r="F100" s="68"/>
+      <c r="A100" s="76"/>
+      <c r="B100" s="62"/>
+      <c r="C100" s="77"/>
+      <c r="D100" s="83"/>
+      <c r="E100" s="76"/>
+      <c r="F100" s="77"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
@@ -58393,55 +58393,41 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
     <mergeCell ref="A92:C100"/>
     <mergeCell ref="D92:D100"/>
     <mergeCell ref="E92:F100"/>
@@ -58452,41 +58438,55 @@
     <mergeCell ref="C87:F89"/>
     <mergeCell ref="A91:C91"/>
     <mergeCell ref="E91:F91"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.94488188976377963" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -59790,7 +59790,7 @@
       <c r="B16" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="52"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="43"/>
       <c r="E16" s="44" t="s">
         <v>69</v>
@@ -59805,7 +59805,7 @@
       <c r="B18" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="52"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="43"/>
       <c r="E18" s="44" t="s">
         <v>69</v>
@@ -59820,7 +59820,7 @@
       <c r="B20" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="52"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="46"/>
       <c r="E20" s="41" t="s">
         <v>72</v>
@@ -59830,14 +59830,14 @@
       <c r="B21" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="52"/>
+      <c r="C21" s="60"/>
     </row>
     <row r="22" spans="2:5" ht="15.75" customHeight="1"/>
     <row r="23" spans="2:5" ht="15.75" customHeight="1">
       <c r="B23" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="52"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="47" t="e">
         <f>D16/D18*D20</f>
         <v>#DIV/0!</v>
@@ -59850,13 +59850,13 @@
       <c r="B24" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="52"/>
+      <c r="C24" s="60"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" customHeight="1">
       <c r="B25" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="52"/>
+      <c r="C25" s="60"/>
     </row>
     <row r="26" spans="2:5" ht="15.75" customHeight="1"/>
     <row r="27" spans="2:5" ht="15.75" customHeight="1"/>
